--- a/DATA/reactor/Rad_Furnace.xlsx
+++ b/DATA/reactor/Rad_Furnace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models_In_Python\Work_Model v3.0\DATA\reactor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models_In_Python\Work_Model v4.0\DATA\reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D6D19-B2B5-42DF-BE57-9F5B633ED0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1D9BD-D6D8-4F63-A468-E9770C5493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,33 +36,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Температура вход</t>
-  </si>
-  <si>
-    <t>Температура выход</t>
-  </si>
-  <si>
-    <t>Давление выход</t>
-  </si>
-  <si>
-    <t>Давление вход</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Объем</t>
-  </si>
-  <si>
-    <t>Кол-во шагов</t>
-  </si>
-  <si>
-    <t>Мольный расход</t>
-  </si>
-  <si>
     <t>Conv</t>
   </si>
   <si>
@@ -73,6 +49,30 @@
   </si>
   <si>
     <t>Rad2</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>temp_in</t>
+  </si>
+  <si>
+    <t>temp_out</t>
+  </si>
+  <si>
+    <t>press_in</t>
+  </si>
+  <si>
+    <t>press_out</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>molar_flow_in</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,31 +416,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>120</v>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <f>D2</f>
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f>D3</f>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>D4</f>
